--- a/stats/bryum/month_active_temp_stats_X2.xlsx
+++ b/stats/bryum/month_active_temp_stats_X2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_temp</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>-4.9</v>
       </c>
+      <c r="F2" t="n">
+        <v>1.32377526505859</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>-3.9</v>
       </c>
+      <c r="F3" t="n">
+        <v>2.76825999770389</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>-3.9</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.37789475782806</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>-2.9</v>
       </c>
+      <c r="F5" t="n">
+        <v>1.5937428671309</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>-4.2</v>
       </c>
+      <c r="F6" t="n">
+        <v>2.41283060156728</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>-3.7</v>
       </c>
+      <c r="F7" t="n">
+        <v>2.09433005295105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>-3.9</v>
       </c>
+      <c r="F8" t="n">
+        <v>1.43911221106763</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>-2.9</v>
       </c>
+      <c r="F9" t="n">
+        <v>2.45748461547577</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>-3.9</v>
       </c>
+      <c r="F10" t="n">
+        <v>2.2321299087631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +577,9 @@
       <c r="E11" t="n">
         <v>-0.9</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -561,6 +597,9 @@
       <c r="E12" t="n">
         <v>-2.7</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.94205954720293</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -578,6 +617,9 @@
       <c r="E13" t="n">
         <v>-5.4</v>
       </c>
+      <c r="F13" t="n">
+        <v>2.58915702725425</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -594,6 +636,9 @@
       </c>
       <c r="E14" t="n">
         <v>-0.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.00414353579197</v>
       </c>
     </row>
   </sheetData>

--- a/stats/bryum/month_active_temp_stats_X2.xlsx
+++ b/stats/bryum/month_active_temp_stats_X2.xlsx
@@ -1,43 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_60C6943CFF67EA0A53310D56BE2B7868E3F4F7B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF985141-92DC-5944-BD0A-E447A32F8AEA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28800" yWindow="-10800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_temp</t>
+    <t>mean_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">max_temp</t>
+    <t>max_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">min_temp</t>
+    <t>min_temp</t>
   </si>
   <si>
-    <t xml:space="preserve">sd_temp</t>
+    <t>sd_temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,6 +80,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -354,14 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,268 +399,380 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.96666666666667</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>-1.9666666666666699</v>
+      </c>
+      <c r="D2">
         <v>-0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.32377526505859</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="F2">
+        <v>1.3237752650585899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.06650563607086</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-3.9</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.76825999770389</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="F3">
+        <v>2.7682599977038902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.15462962962963</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.1546296296296299</v>
+      </c>
+      <c r="D4">
         <v>10.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-3.9</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.37789475782806</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F4">
+        <v>2.3778947578280598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.272</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-2.9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.5937428671309</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.16197718631179</v>
       </c>
-      <c r="D6" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E6">
         <v>-4.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.41283060156728</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.590247252747253</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.59024725274725298</v>
+      </c>
+      <c r="D7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E7">
         <v>-3.7</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.09433005295105</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-1.27857142857143</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-3.9</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.43911221106763</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.70036563071298</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>9.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-2.9</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.45748461547577</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="F9">
+        <v>2.4574846154757699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.06971428571429</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.0697142857142901</v>
+      </c>
+      <c r="D10">
         <v>7.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-3.9</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.2321299087631</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="F10">
+        <v>2.2321299087630999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2022</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>-0.9</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-0.9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-0.9</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2022</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.43809523809524</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>-1.4380952380952401</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-2.7</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.94205954720293</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="F12">
+        <v>0.94205954720292995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.482266009852215</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.48226600985221502</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-5.4</v>
       </c>
-      <c r="F13" t="n">
-        <v>2.58915702725425</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="F13">
+        <v>2.5891570272542501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.814583333333333</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.81458333333333299</v>
+      </c>
+      <c r="D14">
         <v>7.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-0.9</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.00414353579197</v>
+      <c r="F14">
+        <v>2.0041435357919699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2022</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2022</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2022</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2022</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2023</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>